--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3011517.00335024</v>
+        <v>3009223.407893647</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8550620.064818505</v>
+        <v>8550620.064818503</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>78.45398462345162</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>105.263641685088</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>11.19672687104776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202857</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666501</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>66.12438285013694</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991713</v>
+        <v>69.46007239278333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
-        <v>9.099193441179771</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4877306469552</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>135.0949745400652</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1342.972143346164</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1342.972143346164</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>1342.972143346164</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>957.1838907479193</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>546.1979859583118</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>130.4932356826007</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.111475321975</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.972143346164</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.7605118677428</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>750.7605118677428</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880306</v>
+        <v>927.720553932932</v>
       </c>
       <c r="W4" t="n">
-        <v>978.7500627657602</v>
+        <v>638.3033838959714</v>
       </c>
       <c r="X4" t="n">
-        <v>750.7605118677428</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.7605118677428</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827843</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>883.8708262827843</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>883.8708262827843</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>472.8849214931767</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>402.9356658273847</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>812.5736815556418</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>584.5841306576244</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>584.5841306576244</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1645.815527067829</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1287.549828461079</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>901.7615758628347</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>490.7756710732271</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
-        <v>75.70322091822356</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5045,22 +5045,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.6605733532803</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,22 +6236,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703109</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>545.3854261579752</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>397.4723325755821</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>397.4723325755821</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>230.276233290462</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,37 +7397,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.7511347056857</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-1.110173540428545e-12</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.0969227051396</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5.19973830615865</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961901</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26366,16 +26366,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121051</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,37 +26418,37 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312033</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9947.144321768923</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="G4" t="n">
-        <v>9947.144321768908</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768921</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768912</v>
-      </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768834</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768872</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768916</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647734.4620383458</v>
+        <v>-647734.4620383456</v>
       </c>
       <c r="C6" t="n">
-        <v>297378.6431180215</v>
+        <v>297378.643118022</v>
       </c>
       <c r="D6" t="n">
-        <v>500817.3847301273</v>
+        <v>500817.3847301267</v>
       </c>
       <c r="E6" t="n">
-        <v>249592.4737834747</v>
+        <v>249557.7358580389</v>
       </c>
       <c r="F6" t="n">
-        <v>575004.9355908297</v>
+        <v>574970.1976653938</v>
       </c>
       <c r="G6" t="n">
-        <v>575004.9355908296</v>
+        <v>574970.1976653942</v>
       </c>
       <c r="H6" t="n">
-        <v>575004.9355908298</v>
+        <v>574970.1976653943</v>
       </c>
       <c r="I6" t="n">
-        <v>575004.9355908296</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="J6" t="n">
-        <v>407399.7577808471</v>
+        <v>407365.0198554115</v>
       </c>
       <c r="K6" t="n">
-        <v>525894.8428847754</v>
+        <v>525860.1049593398</v>
       </c>
       <c r="L6" t="n">
-        <v>575004.9355908297</v>
+        <v>574970.1976653943</v>
       </c>
       <c r="M6" t="n">
-        <v>489949.9076553179</v>
+        <v>489915.169729882</v>
       </c>
       <c r="N6" t="n">
-        <v>575004.9355908298</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="O6" t="n">
-        <v>575004.9355908298</v>
+        <v>574970.1976653943</v>
       </c>
       <c r="P6" t="n">
-        <v>575004.9355908297</v>
+        <v>574970.1976653941</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.6252644185777e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757584</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>222.5645679389538</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>264.467458993381</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>275.3262714655432</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670086</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068155</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>344.7973428033165</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>94.3554362891111</v>
+        <v>96.56573586624489</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
-        <v>285.5085709461407</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,13 +31844,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>510.7887951929326</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>510.7887951929326</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>510.7887951929326</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
